--- a/biology/Botanique/Comtesse_de_Leusse_(rose)/Comtesse_de_Leusse_(rose).xlsx
+++ b/biology/Botanique/Comtesse_de_Leusse_(rose)/Comtesse_de_Leusse_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Comtesse de Leusse' est un cultivar de rosier obtenu en 1878 par le rosiériste français Gilbert Nabonnand[1]. Il est dédié à la comtesse Paul-Louis de Leusse, née Marie-Madeleine Renouard de Bussière (1837-1916), amatrice de roses.
+'Comtesse de Leusse' est un cultivar de rosier obtenu en 1878 par le rosiériste français Gilbert Nabonnand. Il est dédié à la comtesse Paul-Louis de Leusse, née Marie-Madeleine Renouard de Bussière (1837-1916), amatrice de roses.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier thé au feuillage sain s'élève de 100 cm à 120 cm, pour une envergure de 60 cm. Il montre de grandes[2] roses semi-doubles (9-16 pétales) en forme de coupes et de couleur rose pâle ou rose tendre aux nuances saumonées qui fleurissent tout au long de la saison[3], soit de mai à fin septembre[4]. Il peut être palissé en rosier grimpant[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier thé au feuillage sain s'élève de 100 cm à 120 cm, pour une envergure de 60 cm. Il montre de grandes roses semi-doubles (9-16 pétales) en forme de coupes et de couleur rose pâle ou rose tendre aux nuances saumonées qui fleurissent tout au long de la saison, soit de mai à fin septembre. Il peut être palissé en rosier grimpant. 
 Sa zone de rusticité est de 6b à 9b.
 </t>
         </is>
